--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:04:27+00:00</t>
+    <t>2024-04-30T12:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:40:14+00:00</t>
+    <t>2024-04-30T13:03:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:03:28+00:00</t>
+    <t>2024-04-30T13:09:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="502">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:09:54+00:00</t>
+    <t>2024-05-21T14:49:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Additional information, such as height or weight.</t>
+    <t>Allows you to enter information about the patient in addition to that described in the prescription elements.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -789,7 +789,7 @@
 </t>
   </si>
   <si>
-    <t>LOINC code representing the additional information</t>
+    <t>Nature of additional information representing by LOINC code</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".</t>
@@ -814,7 +814,7 @@
 </t>
   </si>
   <si>
-    <t>Code renseignement complémentaire</t>
+    <t>codeRenseignementComplementaire</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -969,7 +969,10 @@
 </t>
   </si>
   <si>
-    <t>D/H renseignement complémentaire</t>
+    <t>Date and time of registration of the additional information</t>
+  </si>
+  <si>
+    <t>dateHeureRenseignementComplementaire</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -979,7 +982,7 @@
 </t>
   </si>
   <si>
-    <t>Date and time of registration of additional information</t>
+    <t>Date and time associated with the additional information</t>
   </si>
   <si>
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
@@ -988,7 +991,7 @@
     <t>For Observations that don't require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R5/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn't require the new version to be reviewed and verified again.</t>
   </si>
   <si>
-    <t>D/H enregistrement renseignement complémenaire</t>
+    <t>dateHeureEnregistrementRenseignementComplementaire</t>
   </si>
   <si>
     <t>FiveWs.recorded</t>
@@ -1035,7 +1038,7 @@
 CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriodAttachmentReference(MolecularSequence)</t>
   </si>
   <si>
-    <t>Actual result</t>
+    <t>Contains the value of the additional information</t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
@@ -1059,7 +1062,7 @@
 obs-6</t>
   </si>
   <si>
-    <t>Valeur renseignement complémentaire</t>
+    <t>valeurRenseignementComplementaire</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -1961,7 +1964,7 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="53.7109375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="54.65625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="247.40625" customWidth="true" bestFit="true"/>
@@ -5457,7 +5460,7 @@
         <v>302</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>291</v>
@@ -5530,7 +5533,7 @@
         <v>106</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>296</v>
@@ -5553,10 +5556,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5579,16 +5582,16 @@
         <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5638,7 +5641,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5653,22 +5656,22 @@
         <v>106</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AQ30" t="s" s="2">
         <v>81</v>
@@ -5676,10 +5679,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5702,17 +5705,17 @@
         <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5761,7 +5764,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5779,19 +5782,19 @@
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AQ31" t="s" s="2">
         <v>81</v>
@@ -5799,10 +5802,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5825,19 +5828,19 @@
         <v>95</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5886,7 +5889,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5895,13 +5898,13 @@
         <v>94</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>81</v>
@@ -5910,24 +5913,24 @@
         <v>81</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5953,16 +5956,16 @@
         <v>234</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5987,13 +5990,13 @@
         <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>81</v>
@@ -6011,7 +6014,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6020,7 +6023,7 @@
         <v>94</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>106</v>
@@ -6041,7 +6044,7 @@
         <v>139</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AQ33" t="s" s="2">
         <v>81</v>
@@ -6049,14 +6052,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6078,16 +6081,16 @@
         <v>234</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -6112,13 +6115,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -6136,7 +6139,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6160,24 +6163,24 @@
         <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6200,19 +6203,19 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -6261,7 +6264,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6288,10 +6291,10 @@
         <v>81</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AQ35" t="s" s="2">
         <v>81</v>
@@ -6299,10 +6302,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6328,13 +6331,13 @@
         <v>234</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6363,10 +6366,10 @@
         <v>250</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>81</v>
@@ -6384,7 +6387,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6393,7 +6396,7 @@
         <v>94</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>106</v>
@@ -6408,24 +6411,24 @@
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6448,16 +6451,16 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6507,7 +6510,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6516,7 +6519,7 @@
         <v>94</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>106</v>
@@ -6537,7 +6540,7 @@
         <v>81</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>81</v>
@@ -6545,10 +6548,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6574,16 +6577,16 @@
         <v>234</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6611,10 +6614,10 @@
         <v>250</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>81</v>
@@ -6632,7 +6635,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6659,10 +6662,10 @@
         <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>81</v>
@@ -6670,10 +6673,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6696,16 +6699,16 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6755,7 +6758,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6767,7 +6770,7 @@
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
@@ -6779,24 +6782,24 @@
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6819,16 +6822,16 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6878,7 +6881,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6902,24 +6905,24 @@
         <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6945,16 +6948,16 @@
         <v>179</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -7003,7 +7006,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -7015,7 +7018,7 @@
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
@@ -7030,10 +7033,10 @@
         <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AQ41" t="s" s="2">
         <v>81</v>
@@ -7041,10 +7044,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7162,10 +7165,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7285,10 +7288,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7410,10 +7413,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7436,13 +7439,13 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7493,7 +7496,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7502,7 +7505,7 @@
         <v>94</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>106</v>
@@ -7520,10 +7523,10 @@
         <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>81</v>
@@ -7531,10 +7534,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7557,13 +7560,13 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7614,7 +7617,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7623,7 +7626,7 @@
         <v>94</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>106</v>
@@ -7641,10 +7644,10 @@
         <v>81</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AQ46" t="s" s="2">
         <v>81</v>
@@ -7652,10 +7655,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7681,10 +7684,10 @@
         <v>234</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7711,13 +7714,13 @@
         <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>81</v>
@@ -7735,7 +7738,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7762,10 +7765,10 @@
         <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>81</v>
@@ -7773,10 +7776,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7802,16 +7805,16 @@
         <v>234</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7839,10 +7842,10 @@
         <v>239</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
@@ -7860,7 +7863,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7884,13 +7887,13 @@
         <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>81</v>
@@ -7898,10 +7901,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7927,16 +7930,16 @@
         <v>234</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -7964,10 +7967,10 @@
         <v>250</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
@@ -7985,7 +7988,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -8009,13 +8012,13 @@
         <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AQ49" t="s" s="2">
         <v>81</v>
@@ -8023,10 +8026,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8049,17 +8052,17 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -8108,7 +8111,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8138,7 +8141,7 @@
         <v>81</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>81</v>
@@ -8146,10 +8149,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8172,13 +8175,13 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8229,7 +8232,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8238,7 +8241,7 @@
         <v>94</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>106</v>
@@ -8256,10 +8259,10 @@
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AQ51" t="s" s="2">
         <v>81</v>
@@ -8267,10 +8270,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8293,16 +8296,16 @@
         <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8352,7 +8355,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8379,7 +8382,7 @@
         <v>81</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>201</v>
@@ -8390,10 +8393,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8416,16 +8419,16 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8475,7 +8478,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8502,10 +8505,10 @@
         <v>81</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AQ53" t="s" s="2">
         <v>81</v>
@@ -8513,10 +8516,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8542,16 +8545,16 @@
         <v>179</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8600,7 +8603,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8627,10 +8630,10 @@
         <v>81</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AQ54" t="s" s="2">
         <v>81</v>
@@ -8638,10 +8641,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8759,10 +8762,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8882,10 +8885,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9007,10 +9010,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9036,13 +9039,13 @@
         <v>234</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>249</v>
@@ -9094,7 +9097,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>94</v>
@@ -9118,7 +9121,7 @@
         <v>256</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>258</v>
@@ -9132,10 +9135,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9158,19 +9161,19 @@
         <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -9219,7 +9222,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9243,24 +9246,24 @@
         <v>81</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9286,16 +9289,16 @@
         <v>234</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9320,13 +9323,13 @@
         <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
@@ -9344,7 +9347,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9374,7 +9377,7 @@
         <v>139</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>81</v>
@@ -9382,14 +9385,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9411,16 +9414,16 @@
         <v>234</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -9445,13 +9448,13 @@
         <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
@@ -9469,7 +9472,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9493,24 +9496,24 @@
         <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9536,16 +9539,16 @@
         <v>82</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9594,7 +9597,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9621,10 +9624,10 @@
         <v>81</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AQ62" t="s" s="2">
         <v>81</v>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T14:49:50+00:00</t>
+    <t>2024-05-21T15:06:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T15:06:05+00:00</t>
+    <t>2024-05-22T07:46:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="501">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T07:46:44+00:00</t>
+    <t>2024-05-22T08:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -924,8 +924,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -944,7 +944,7 @@
 </t>
   </si>
   <si>
-    <t>open</t>
+    <t>closed</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -965,14 +965,10 @@
     <t>effectiveDateTime</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
     <t>Date and time of registration of the additional information</t>
   </si>
   <si>
-    <t>dateHeureRenseignementComplementaire</t>
+    <t>dateHeureEnregistrementRenseignementComplementaire</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -991,7 +987,7 @@
     <t>For Observations that don't require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R5/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn't require the new version to be reviewed and verified again.</t>
   </si>
   <si>
-    <t>dateHeureEnregistrementRenseignementComplementaire</t>
+    <t>dateHeureRenseignementComplementaire</t>
   </si>
   <si>
     <t>FiveWs.recorded</t>
@@ -5317,7 +5313,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>94</v>
@@ -5442,7 +5438,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>94</v>
@@ -5457,10 +5453,10 @@
         <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>291</v>
@@ -5533,7 +5529,7 @@
         <v>106</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>296</v>
@@ -5556,10 +5552,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5567,7 +5563,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>94</v>
@@ -5582,16 +5578,16 @@
         <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5641,7 +5637,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5656,22 +5652,22 @@
         <v>106</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AN30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO30" t="s" s="2">
+      <c r="AP30" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AQ30" t="s" s="2">
         <v>81</v>
@@ -5679,10 +5675,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5705,17 +5701,17 @@
         <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5764,7 +5760,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5782,19 +5778,19 @@
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AN31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO31" t="s" s="2">
+      <c r="AP31" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AQ31" t="s" s="2">
         <v>81</v>
@@ -5802,10 +5798,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5828,19 +5824,19 @@
         <v>95</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5889,7 +5885,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5898,39 +5894,39 @@
         <v>94</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AL32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AO32" t="s" s="2">
+      <c r="AP32" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AP32" t="s" s="2">
+      <c r="AQ32" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AQ32" t="s" s="2">
-        <v>334</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5956,16 +5952,16 @@
         <v>234</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5990,14 +5986,14 @@
         <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="AA33" t="s" s="2">
         <v>81</v>
       </c>
@@ -6014,7 +6010,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6023,7 +6019,7 @@
         <v>94</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>106</v>
@@ -6044,7 +6040,7 @@
         <v>139</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AQ33" t="s" s="2">
         <v>81</v>
@@ -6052,14 +6048,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6081,16 +6077,16 @@
         <v>234</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -6115,14 +6111,14 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Z34" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
       </c>
@@ -6139,7 +6135,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6163,24 +6159,24 @@
         <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AO34" t="s" s="2">
+      <c r="AP34" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AP34" t="s" s="2">
+      <c r="AQ34" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AQ34" t="s" s="2">
-        <v>356</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6203,19 +6199,19 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -6264,7 +6260,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6291,10 +6287,10 @@
         <v>81</v>
       </c>
       <c r="AO35" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AP35" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AQ35" t="s" s="2">
         <v>81</v>
@@ -6302,10 +6298,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6331,13 +6327,13 @@
         <v>234</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6366,11 +6362,11 @@
         <v>250</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Z36" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="AA36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6387,7 +6383,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6396,7 +6392,7 @@
         <v>94</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>106</v>
@@ -6411,24 +6407,24 @@
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AO36" t="s" s="2">
+      <c r="AP36" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AP36" t="s" s="2">
+      <c r="AQ36" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AQ36" t="s" s="2">
-        <v>375</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6451,16 +6447,16 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6510,7 +6506,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6519,7 +6515,7 @@
         <v>94</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>106</v>
@@ -6540,7 +6536,7 @@
         <v>81</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>81</v>
@@ -6548,10 +6544,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6577,16 +6573,16 @@
         <v>234</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6614,11 +6610,11 @@
         <v>250</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>387</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6635,7 +6631,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6662,10 +6658,10 @@
         <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AP38" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>81</v>
@@ -6673,10 +6669,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6699,16 +6695,16 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6758,7 +6754,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6770,36 +6766,36 @@
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AO39" t="s" s="2">
+      <c r="AP39" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AP39" t="s" s="2">
+      <c r="AQ39" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AQ39" t="s" s="2">
-        <v>399</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6822,16 +6818,16 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6881,7 +6877,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6905,24 +6901,24 @@
         <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AO40" t="s" s="2">
+      <c r="AP40" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AP40" t="s" s="2">
+      <c r="AQ40" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AQ40" t="s" s="2">
-        <v>408</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6948,16 +6944,16 @@
         <v>179</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -7006,7 +7002,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -7018,25 +7014,25 @@
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO41" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO41" t="s" s="2">
+      <c r="AP41" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AQ41" t="s" s="2">
         <v>81</v>
@@ -7044,10 +7040,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7165,10 +7161,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7288,10 +7284,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7413,10 +7409,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7439,13 +7435,13 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7496,7 +7492,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7505,7 +7501,7 @@
         <v>94</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>106</v>
@@ -7523,10 +7519,10 @@
         <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>81</v>
@@ -7534,10 +7530,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7560,13 +7556,13 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7617,7 +7613,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7626,7 +7622,7 @@
         <v>94</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>106</v>
@@ -7644,10 +7640,10 @@
         <v>81</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AQ46" t="s" s="2">
         <v>81</v>
@@ -7655,10 +7651,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7684,10 +7680,10 @@
         <v>234</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7714,14 +7710,14 @@
         <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>434</v>
-      </c>
       <c r="AA47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7738,7 +7734,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7765,10 +7761,10 @@
         <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>81</v>
@@ -7776,10 +7772,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7805,16 +7801,16 @@
         <v>234</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7842,11 +7838,11 @@
         <v>239</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>442</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7863,7 +7859,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7887,13 +7883,13 @@
         <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AO48" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="AP48" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>81</v>
@@ -7901,10 +7897,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7930,16 +7926,16 @@
         <v>234</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -7967,11 +7963,11 @@
         <v>250</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>451</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7988,7 +7984,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -8012,13 +8008,13 @@
         <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AO49" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="AP49" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AQ49" t="s" s="2">
         <v>81</v>
@@ -8026,10 +8022,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8052,17 +8048,17 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -8111,7 +8107,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8141,7 +8137,7 @@
         <v>81</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>81</v>
@@ -8149,10 +8145,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8175,13 +8171,13 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8232,7 +8228,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8241,7 +8237,7 @@
         <v>94</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>106</v>
@@ -8259,10 +8255,10 @@
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AQ51" t="s" s="2">
         <v>81</v>
@@ -8270,10 +8266,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8296,16 +8292,16 @@
         <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8355,7 +8351,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8382,7 +8378,7 @@
         <v>81</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>201</v>
@@ -8393,10 +8389,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8419,16 +8415,16 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8478,7 +8474,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8505,10 +8501,10 @@
         <v>81</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AQ53" t="s" s="2">
         <v>81</v>
@@ -8516,10 +8512,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8545,16 +8541,16 @@
         <v>179</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8603,7 +8599,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8630,10 +8626,10 @@
         <v>81</v>
       </c>
       <c r="AO54" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AP54" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="AQ54" t="s" s="2">
         <v>81</v>
@@ -8641,10 +8637,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8762,10 +8758,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8885,10 +8881,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9010,10 +9006,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9039,13 +9035,13 @@
         <v>234</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>249</v>
@@ -9097,7 +9093,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>94</v>
@@ -9121,7 +9117,7 @@
         <v>256</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>258</v>
@@ -9135,10 +9131,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9161,19 +9157,19 @@
         <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>492</v>
-      </c>
       <c r="O59" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -9222,7 +9218,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9246,24 +9242,24 @@
         <v>81</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AO59" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AP59" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AP59" t="s" s="2">
+      <c r="AQ59" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AQ59" t="s" s="2">
-        <v>334</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9289,16 +9285,16 @@
         <v>234</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="N60" t="s" s="2">
-        <v>497</v>
-      </c>
       <c r="O60" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9323,14 +9319,14 @@
         <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="Y60" t="s" s="2">
+      <c r="Z60" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
       </c>
@@ -9347,7 +9343,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9377,7 +9373,7 @@
         <v>139</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>81</v>
@@ -9385,14 +9381,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9414,16 +9410,16 @@
         <v>234</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -9448,14 +9444,14 @@
         <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9472,7 +9468,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9496,24 +9492,24 @@
         <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AO61" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AO61" t="s" s="2">
+      <c r="AP61" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AP61" t="s" s="2">
+      <c r="AQ61" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AQ61" t="s" s="2">
-        <v>356</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9539,16 +9535,16 @@
         <v>82</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>501</v>
-      </c>
       <c r="N62" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O62" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9597,7 +9593,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9624,10 +9620,10 @@
         <v>81</v>
       </c>
       <c r="AO62" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AP62" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AQ62" t="s" s="2">
         <v>81</v>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T08:18:01+00:00</t>
+    <t>2024-05-23T12:26:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:26:46+00:00</t>
+    <t>2024-05-23T14:57:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:57:19+00:00</t>
+    <t>2024-05-27T07:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T07:09:09+00:00</t>
+    <t>2024-05-27T09:43:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T09:43:00+00:00</t>
+    <t>2024-05-27T14:54:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Allows you to enter information about the patient in addition to that described in the prescription elements.</t>
+    <t>Allows you to enter information about the patient in addition to that described in the prescription elements. 
+Permet d’indiquer les informations relatives au patient qui complètent celles décrites par les éléments de prescription</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -282,7 +283,7 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.component.code is the same as Observation.code, then Observation.value SHALL NOT be present (the Observation.component.value[x] holds the value). {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}obs-8:bodyStructure SHALL only be present if Observation.bodySite is not present {bodySite.exists() implies bodyStructure.empty()}</t>
   </si>
   <si>
-    <t>RENSEIGNEMENT COMPLEMENTAIRE</t>
+    <t>RenseignementComplementaire</t>
   </si>
   <si>
     <t>Event</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T14:54:53+00:00</t>
+    <t>2024-05-27T15:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T15:00:38+00:00</t>
+    <t>2024-05-28T12:35:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T12:35:56+00:00</t>
+    <t>2024-05-28T13:45:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:45:00+00:00</t>
+    <t>2024-05-28T14:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:44:14+00:00</t>
+    <t>2024-05-28T14:54:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:54:25+00:00</t>
+    <t>2024-05-28T15:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T15:01:56+00:00</t>
+    <t>2024-05-29T08:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T08:10:39+00:00</t>
+    <t>2024-05-30T08:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T08:16:30+00:00</t>
+    <t>2024-05-31T12:49:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T12:49:41+00:00</t>
+    <t>2024-06-03T08:47:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T08:47:04+00:00</t>
+    <t>2024-06-03T12:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T12:03:22+00:00</t>
+    <t>2024-06-03T13:43:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="502">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T13:43:08+00:00</t>
+    <t>2024-06-04T08:55:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -802,13 +802,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://ltsi.univ-rennes.fr/ValueSet/siph-renscomplement-oncofair-valueset</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -1180,6 +1174,9 @@
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
     <t>SNOMED CT Body site concepts</t>
   </si>
   <si>
@@ -1556,6 +1553,12 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1951,7 +1954,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.02734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.75" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -4868,13 +4871,11 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="Y24" s="2"/>
+      <c r="Z24" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
@@ -4901,39 +4902,39 @@
         <v>94</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>207</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4956,19 +4957,19 @@
         <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -5017,7 +5018,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5035,19 +5036,19 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AP25" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AQ25" t="s" s="2">
         <v>81</v>
@@ -5055,10 +5056,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5081,16 +5082,16 @@
         <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5140,7 +5141,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5161,16 +5162,16 @@
         <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AQ26" t="s" s="2">
         <v>81</v>
@@ -5178,14 +5179,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5204,19 +5205,19 @@
         <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -5265,7 +5266,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5283,19 +5284,19 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AP27" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>81</v>
@@ -5303,14 +5304,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5329,19 +5330,19 @@
         <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -5378,17 +5379,17 @@
         <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5406,19 +5407,19 @@
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AP28" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>81</v>
@@ -5426,16 +5427,16 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5454,19 +5455,19 @@
         <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5515,7 +5516,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5530,22 +5531,22 @@
         <v>106</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AP29" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>81</v>
@@ -5553,10 +5554,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5579,16 +5580,16 @@
         <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5638,7 +5639,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5653,22 +5654,22 @@
         <v>106</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AP30" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AQ30" t="s" s="2">
         <v>81</v>
@@ -5676,10 +5677,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5702,17 +5703,17 @@
         <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5761,7 +5762,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5779,19 +5780,19 @@
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AP31" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AQ31" t="s" s="2">
         <v>81</v>
@@ -5799,10 +5800,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5825,19 +5826,19 @@
         <v>95</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5886,7 +5887,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5895,39 +5896,39 @@
         <v>94</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AO32" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AL32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AP32" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AO32" t="s" s="2">
+      <c r="AQ32" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AQ32" t="s" s="2">
-        <v>333</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5953,16 +5954,16 @@
         <v>234</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5987,14 +5988,14 @@
         <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Z33" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="AA33" t="s" s="2">
         <v>81</v>
       </c>
@@ -6011,7 +6012,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6020,7 +6021,7 @@
         <v>94</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>106</v>
@@ -6041,7 +6042,7 @@
         <v>139</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AQ33" t="s" s="2">
         <v>81</v>
@@ -6049,14 +6050,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6078,16 +6079,16 @@
         <v>234</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -6112,13 +6113,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -6136,7 +6137,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6160,24 +6161,24 @@
         <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AO34" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AP34" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AO34" t="s" s="2">
+      <c r="AQ34" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AQ34" t="s" s="2">
-        <v>355</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6200,19 +6201,19 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -6261,7 +6262,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6288,10 +6289,10 @@
         <v>81</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AQ35" t="s" s="2">
         <v>81</v>
@@ -6299,10 +6300,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6328,13 +6329,13 @@
         <v>234</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6360,14 +6361,14 @@
         <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>250</v>
+        <v>366</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="Z36" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="AA36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6384,7 +6385,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6393,7 +6394,7 @@
         <v>94</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>106</v>
@@ -6408,24 +6409,24 @@
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AO36" t="s" s="2">
+      <c r="AP36" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AP36" t="s" s="2">
+      <c r="AQ36" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AQ36" t="s" s="2">
-        <v>374</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6448,16 +6449,16 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6507,7 +6508,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6516,7 +6517,7 @@
         <v>94</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>106</v>
@@ -6537,7 +6538,7 @@
         <v>81</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>81</v>
@@ -6545,10 +6546,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6574,16 +6575,16 @@
         <v>234</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6608,14 +6609,14 @@
         <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>250</v>
+        <v>366</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6632,7 +6633,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6659,10 +6660,10 @@
         <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AP38" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>81</v>
@@ -6670,10 +6671,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6696,16 +6697,16 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6755,7 +6756,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6767,36 +6768,36 @@
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AO39" t="s" s="2">
+      <c r="AP39" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AP39" t="s" s="2">
+      <c r="AQ39" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AQ39" t="s" s="2">
-        <v>398</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6819,16 +6820,16 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6878,7 +6879,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6902,24 +6903,24 @@
         <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AO40" t="s" s="2">
+      <c r="AP40" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AP40" t="s" s="2">
+      <c r="AQ40" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AQ40" t="s" s="2">
-        <v>407</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6945,16 +6946,16 @@
         <v>179</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -7003,7 +7004,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -7015,25 +7016,25 @@
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO41" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO41" t="s" s="2">
+      <c r="AP41" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AQ41" t="s" s="2">
         <v>81</v>
@@ -7041,10 +7042,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7162,10 +7163,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7285,10 +7286,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7410,10 +7411,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7436,13 +7437,13 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7493,7 +7494,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7502,7 +7503,7 @@
         <v>94</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>106</v>
@@ -7520,10 +7521,10 @@
         <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>81</v>
@@ -7531,10 +7532,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7557,13 +7558,13 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7614,7 +7615,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7623,7 +7624,7 @@
         <v>94</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>106</v>
@@ -7641,10 +7642,10 @@
         <v>81</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AQ46" t="s" s="2">
         <v>81</v>
@@ -7652,10 +7653,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7681,10 +7682,10 @@
         <v>234</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7711,14 +7712,14 @@
         <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="AA47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7735,7 +7736,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7762,10 +7763,10 @@
         <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>81</v>
@@ -7773,10 +7774,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7802,16 +7803,16 @@
         <v>234</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7839,11 +7840,11 @@
         <v>239</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7860,7 +7861,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7884,13 +7885,13 @@
         <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AO48" t="s" s="2">
-        <v>443</v>
-      </c>
       <c r="AP48" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>81</v>
@@ -7898,10 +7899,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7927,16 +7928,16 @@
         <v>234</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -7961,14 +7962,14 @@
         <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>250</v>
+        <v>366</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>450</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7985,7 +7986,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -8009,13 +8010,13 @@
         <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AO49" t="s" s="2">
-        <v>443</v>
-      </c>
       <c r="AP49" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AQ49" t="s" s="2">
         <v>81</v>
@@ -8023,10 +8024,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8049,17 +8050,17 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -8108,7 +8109,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8138,7 +8139,7 @@
         <v>81</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>81</v>
@@ -8146,10 +8147,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8172,13 +8173,13 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8229,7 +8230,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8238,7 +8239,7 @@
         <v>94</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>106</v>
@@ -8256,10 +8257,10 @@
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AQ51" t="s" s="2">
         <v>81</v>
@@ -8267,10 +8268,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8293,16 +8294,16 @@
         <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8352,7 +8353,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8379,7 +8380,7 @@
         <v>81</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>201</v>
@@ -8390,10 +8391,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8416,16 +8417,16 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8475,7 +8476,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8502,10 +8503,10 @@
         <v>81</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AQ53" t="s" s="2">
         <v>81</v>
@@ -8513,10 +8514,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8542,16 +8543,16 @@
         <v>179</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8600,7 +8601,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8609,7 +8610,7 @@
         <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>106</v>
@@ -8627,10 +8628,10 @@
         <v>81</v>
       </c>
       <c r="AO54" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AP54" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="AQ54" t="s" s="2">
         <v>81</v>
@@ -8638,10 +8639,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8759,10 +8760,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8882,10 +8883,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9007,10 +9008,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9036,13 +9037,13 @@
         <v>234</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>249</v>
@@ -9070,13 +9071,13 @@
         <v>81</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>250</v>
+        <v>366</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>251</v>
+        <v>487</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>252</v>
+        <v>488</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>81</v>
@@ -9094,7 +9095,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>94</v>
@@ -9103,7 +9104,7 @@
         <v>94</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>106</v>
@@ -9115,13 +9116,13 @@
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>207</v>
@@ -9132,10 +9133,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9158,19 +9159,19 @@
         <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="O59" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -9219,7 +9220,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9243,24 +9244,24 @@
         <v>81</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AO59" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AQ59" t="s" s="2">
-        <v>333</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9286,16 +9287,16 @@
         <v>234</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9320,14 +9321,14 @@
         <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
       </c>
@@ -9344,7 +9345,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9374,7 +9375,7 @@
         <v>139</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>81</v>
@@ -9382,14 +9383,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9411,16 +9412,16 @@
         <v>234</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -9445,13 +9446,13 @@
         <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
@@ -9469,7 +9470,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9493,24 +9494,24 @@
         <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AP61" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AO61" t="s" s="2">
+      <c r="AQ61" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AQ61" t="s" s="2">
-        <v>355</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9536,16 +9537,16 @@
         <v>82</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N62" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="O62" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9594,7 +9595,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9621,10 +9622,10 @@
         <v>81</v>
       </c>
       <c r="AO62" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AP62" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AQ62" t="s" s="2">
         <v>81</v>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T08:55:54+00:00</t>
+    <t>2024-06-10T07:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:07+00:00</t>
+    <t>2024-06-10T07:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:39+00:00</t>
+    <t>2024-06-10T07:41:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:41:34+00:00</t>
+    <t>2024-06-10T08:10:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T08:10:59+00:00</t>
+    <t>2024-06-10T15:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T15:21:14+00:00</t>
+    <t>2024-06-11T13:09:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:09:11+00:00</t>
+    <t>2024-06-11T13:36:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:36:23+00:00</t>
+    <t>2024-06-11T13:36:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:36:58+00:00</t>
+    <t>2024-06-11T13:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:40:55+00:00</t>
+    <t>2024-06-11T14:41:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T14:41:15+00:00</t>
+    <t>2024-06-14T09:45:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T09:45:22+00:00</t>
+    <t>2024-06-17T08:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:31:35+00:00</t>
+    <t>2024-06-17T10:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T10:03:01+00:00</t>
+    <t>2024-06-17T13:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:29:46+00:00</t>
+    <t>2024-06-17T13:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:35:15+00:00</t>
+    <t>2024-06-17T14:22:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:22:32+00:00</t>
+    <t>2024-06-17T15:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:02:03+00:00</t>
+    <t>2024-06-17T15:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:41:32+00:00</t>
+    <t>2024-06-17T15:49:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:49:27+00:00</t>
+    <t>2024-06-19T11:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T11:28:46+00:00</t>
+    <t>2024-06-19T14:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T14:43:39+00:00</t>
+    <t>2024-06-19T14:52:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T14:52:00+00:00</t>
+    <t>2024-06-21T13:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T13:36:06+00:00</t>
+    <t>2024-06-24T09:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T09:13:58+00:00</t>
+    <t>2024-06-25T08:47:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T08:47:40+00:00</t>
+    <t>2024-06-25T15:16:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T07:50:29+00:00</t>
+    <t>2024-07-01T08:31:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T08:31:50+00:00</t>
+    <t>2024-07-01T09:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T09:30:15+00:00</t>
+    <t>2024-07-01T10:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T10:02:25+00:00</t>
+    <t>2024-07-01T11:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:58:14+00:00</t>
+    <t>2024-07-01T12:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T12:32:20+00:00</t>
+    <t>2024-07-01T13:52:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T13:52:38+00:00</t>
+    <t>2024-07-01T15:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:03:37+00:00</t>
+    <t>2024-07-02T14:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T14:09:09+00:00</t>
+    <t>2024-07-08T15:06:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T15:06:33+00:00</t>
+    <t>2024-07-09T09:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:06:22+00:00</t>
+    <t>2024-07-09T09:07:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:07:42+00:00</t>
+    <t>2024-07-09T15:05:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T15:05:31+00:00</t>
+    <t>2024-07-17T09:54:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T09:54:34+00:00</t>
+    <t>2024-07-25T08:23:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-25T08:23:41+00:00</t>
+    <t>2024-07-30T09:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:08:54+00:00</t>
+    <t>2024-07-30T09:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:18:29+00:00</t>
+    <t>2024-07-30T09:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:25:03+00:00</t>
+    <t>2024-07-30T13:05:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:05:01+00:00</t>
+    <t>2024-07-30T13:12:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:12:38+00:00</t>
+    <t>2024-09-10T09:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
